--- a/writing/data/tableWrite.xlsx
+++ b/writing/data/tableWrite.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="STRING_IDtbl" id="1" name="STRING_IDtbl" ref="A1:B10" totalsRowShown="false">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="TBL_STRING_ID" id="1" name="TBL_STRING_ID" ref="A1:B10" totalsRowShown="false">
   <autoFilter ref="A1:B10"/>
   <tableColumns count="2">
     <tableColumn id="1" name="DATE"/>
